--- a/Data/EC/NIT-9003571851.xlsx
+++ b/Data/EC/NIT-9003571851.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CCE69E33-5A1D-4394-9B7A-C65FCD28C4DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{10F5CF54-6AAA-4AD5-90A9-DAA201F0C52B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{FD299C3F-D432-4235-A0E5-ABF1585EF23B}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{2411233A-B54E-4B09-8E6E-78EEE71FC362}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -62,6 +62,42 @@
     <t>DAGOSA S.A.S.</t>
   </si>
   <si>
+    <t>CC</t>
+  </si>
+  <si>
+    <t>1047371756</t>
+  </si>
+  <si>
+    <t>MIRLEY MONTALVO PEREZ</t>
+  </si>
+  <si>
+    <t>2103</t>
+  </si>
+  <si>
+    <t>2102</t>
+  </si>
+  <si>
+    <t>2101</t>
+  </si>
+  <si>
+    <t>2012</t>
+  </si>
+  <si>
+    <t>2011</t>
+  </si>
+  <si>
+    <t>2010</t>
+  </si>
+  <si>
+    <t>2009</t>
+  </si>
+  <si>
+    <t>2008</t>
+  </si>
+  <si>
+    <t>2007</t>
+  </si>
+  <si>
     <t>CE</t>
   </si>
   <si>
@@ -71,49 +107,13 @@
     <t>CARMEN ELENA HERRERA GARCIA</t>
   </si>
   <si>
+    <t>1801</t>
+  </si>
+  <si>
+    <t>1712</t>
+  </si>
+  <si>
     <t>1711</t>
-  </si>
-  <si>
-    <t>1712</t>
-  </si>
-  <si>
-    <t>1801</t>
-  </si>
-  <si>
-    <t>CC</t>
-  </si>
-  <si>
-    <t>1047371756</t>
-  </si>
-  <si>
-    <t>MIRLEY MONTALVO PEREZ</t>
-  </si>
-  <si>
-    <t>2007</t>
-  </si>
-  <si>
-    <t>2008</t>
-  </si>
-  <si>
-    <t>2009</t>
-  </si>
-  <si>
-    <t>2010</t>
-  </si>
-  <si>
-    <t>2011</t>
-  </si>
-  <si>
-    <t>2012</t>
-  </si>
-  <si>
-    <t>2101</t>
-  </si>
-  <si>
-    <t>2102</t>
-  </si>
-  <si>
-    <t>2103</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -527,7 +527,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{21AB7F49-2D10-E18F-B97C-DD544B882563}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6EA59307-EDA5-B4CF-40F5-A38642693FFE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -878,7 +878,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41DC20DB-5580-4109-9B61-40B6FF256119}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{967EB0AE-900C-4523-B619-1B6F7BB682E3}">
   <dimension ref="B2:J33"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
@@ -1056,10 +1056,10 @@
         <v>11</v>
       </c>
       <c r="F16" s="18">
-        <v>10820</v>
+        <v>25396</v>
       </c>
       <c r="G16" s="18">
-        <v>737717</v>
+        <v>828116</v>
       </c>
       <c r="H16" s="19"/>
       <c r="I16" s="19"/>
@@ -1079,10 +1079,10 @@
         <v>12</v>
       </c>
       <c r="F17" s="18">
-        <v>29509</v>
+        <v>33125</v>
       </c>
       <c r="G17" s="18">
-        <v>737717</v>
+        <v>828116</v>
       </c>
       <c r="H17" s="19"/>
       <c r="I17" s="19"/>
@@ -1102,10 +1102,10 @@
         <v>13</v>
       </c>
       <c r="F18" s="18">
-        <v>29509</v>
+        <v>33125</v>
       </c>
       <c r="G18" s="18">
-        <v>737717</v>
+        <v>828116</v>
       </c>
       <c r="H18" s="19"/>
       <c r="I18" s="19"/>
@@ -1113,16 +1113,16 @@
     </row>
     <row r="19" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B19" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C19" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D19" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E19" s="16" t="s">
         <v>14</v>
-      </c>
-      <c r="C19" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="D19" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="E19" s="16" t="s">
-        <v>17</v>
       </c>
       <c r="F19" s="18">
         <v>33125</v>
@@ -1136,16 +1136,16 @@
     </row>
     <row r="20" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B20" s="15" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C20" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D20" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E20" s="16" t="s">
         <v>15</v>
-      </c>
-      <c r="D20" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="E20" s="16" t="s">
-        <v>18</v>
       </c>
       <c r="F20" s="18">
         <v>33125</v>
@@ -1159,16 +1159,16 @@
     </row>
     <row r="21" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B21" s="15" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D21" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E21" s="16" t="s">
         <v>16</v>
-      </c>
-      <c r="E21" s="16" t="s">
-        <v>19</v>
       </c>
       <c r="F21" s="18">
         <v>33125</v>
@@ -1182,16 +1182,16 @@
     </row>
     <row r="22" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B22" s="15" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D22" s="17" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F22" s="18">
         <v>33125</v>
@@ -1205,16 +1205,16 @@
     </row>
     <row r="23" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B23" s="15" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D23" s="17" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E23" s="16" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F23" s="18">
         <v>33125</v>
@@ -1228,16 +1228,16 @@
     </row>
     <row r="24" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B24" s="15" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D24" s="17" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="F24" s="18">
         <v>33125</v>
@@ -1251,22 +1251,22 @@
     </row>
     <row r="25" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B25" s="15" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="D25" s="17" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="E25" s="16" t="s">
         <v>23</v>
       </c>
       <c r="F25" s="18">
-        <v>33125</v>
+        <v>29509</v>
       </c>
       <c r="G25" s="18">
-        <v>828116</v>
+        <v>737717</v>
       </c>
       <c r="H25" s="19"/>
       <c r="I25" s="19"/>
@@ -1274,22 +1274,22 @@
     </row>
     <row r="26" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B26" s="15" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="D26" s="17" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="E26" s="16" t="s">
         <v>24</v>
       </c>
       <c r="F26" s="18">
-        <v>33125</v>
+        <v>29509</v>
       </c>
       <c r="G26" s="18">
-        <v>828116</v>
+        <v>737717</v>
       </c>
       <c r="H26" s="19"/>
       <c r="I26" s="19"/>
@@ -1297,22 +1297,22 @@
     </row>
     <row r="27" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B27" s="21" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="C27" s="22" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="D27" s="23" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="E27" s="22" t="s">
         <v>25</v>
       </c>
       <c r="F27" s="24">
-        <v>25396</v>
+        <v>10820</v>
       </c>
       <c r="G27" s="24">
-        <v>828116</v>
+        <v>737717</v>
       </c>
       <c r="H27" s="25"/>
       <c r="I27" s="25"/>

--- a/Data/EC/NIT-9003571851.xlsx
+++ b/Data/EC/NIT-9003571851.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{10F5CF54-6AAA-4AD5-90A9-DAA201F0C52B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2A7523B2-DFEB-4C17-98C2-49B22E4C1295}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{2411233A-B54E-4B09-8E6E-78EEE71FC362}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{D86F0876-42D7-46A0-A00F-FA0A29B97C78}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -62,6 +62,24 @@
     <t>DAGOSA S.A.S.</t>
   </si>
   <si>
+    <t>CE</t>
+  </si>
+  <si>
+    <t>18140237</t>
+  </si>
+  <si>
+    <t>CARMEN ELENA HERRERA GARCIA</t>
+  </si>
+  <si>
+    <t>1711</t>
+  </si>
+  <si>
+    <t>1712</t>
+  </si>
+  <si>
+    <t>1801</t>
+  </si>
+  <si>
     <t>CC</t>
   </si>
   <si>
@@ -71,49 +89,31 @@
     <t>MIRLEY MONTALVO PEREZ</t>
   </si>
   <si>
+    <t>2007</t>
+  </si>
+  <si>
+    <t>2008</t>
+  </si>
+  <si>
+    <t>2009</t>
+  </si>
+  <si>
+    <t>2010</t>
+  </si>
+  <si>
+    <t>2011</t>
+  </si>
+  <si>
+    <t>2012</t>
+  </si>
+  <si>
+    <t>2101</t>
+  </si>
+  <si>
+    <t>2102</t>
+  </si>
+  <si>
     <t>2103</t>
-  </si>
-  <si>
-    <t>2102</t>
-  </si>
-  <si>
-    <t>2101</t>
-  </si>
-  <si>
-    <t>2012</t>
-  </si>
-  <si>
-    <t>2011</t>
-  </si>
-  <si>
-    <t>2010</t>
-  </si>
-  <si>
-    <t>2009</t>
-  </si>
-  <si>
-    <t>2008</t>
-  </si>
-  <si>
-    <t>2007</t>
-  </si>
-  <si>
-    <t>CE</t>
-  </si>
-  <si>
-    <t>18140237</t>
-  </si>
-  <si>
-    <t>CARMEN ELENA HERRERA GARCIA</t>
-  </si>
-  <si>
-    <t>1801</t>
-  </si>
-  <si>
-    <t>1712</t>
-  </si>
-  <si>
-    <t>1711</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -212,7 +212,9 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -225,9 +227,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -427,23 +427,23 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -471,10 +471,10 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -527,7 +527,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6EA59307-EDA5-B4CF-40F5-A38642693FFE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C90845C8-0C65-B9EB-497F-2083C44AF77C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -878,7 +878,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{967EB0AE-900C-4523-B619-1B6F7BB682E3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C78C7351-58A8-4834-A32C-3BF0E0289526}">
   <dimension ref="B2:J33"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
@@ -1056,10 +1056,10 @@
         <v>11</v>
       </c>
       <c r="F16" s="18">
-        <v>25396</v>
+        <v>10820</v>
       </c>
       <c r="G16" s="18">
-        <v>828116</v>
+        <v>737717</v>
       </c>
       <c r="H16" s="19"/>
       <c r="I16" s="19"/>
@@ -1079,10 +1079,10 @@
         <v>12</v>
       </c>
       <c r="F17" s="18">
-        <v>33125</v>
+        <v>29509</v>
       </c>
       <c r="G17" s="18">
-        <v>828116</v>
+        <v>737717</v>
       </c>
       <c r="H17" s="19"/>
       <c r="I17" s="19"/>
@@ -1102,10 +1102,10 @@
         <v>13</v>
       </c>
       <c r="F18" s="18">
-        <v>33125</v>
+        <v>29509</v>
       </c>
       <c r="G18" s="18">
-        <v>828116</v>
+        <v>737717</v>
       </c>
       <c r="H18" s="19"/>
       <c r="I18" s="19"/>
@@ -1113,16 +1113,16 @@
     </row>
     <row r="19" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B19" s="15" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D19" s="17" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E19" s="16" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="F19" s="18">
         <v>33125</v>
@@ -1136,16 +1136,16 @@
     </row>
     <row r="20" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B20" s="15" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D20" s="17" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E20" s="16" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="F20" s="18">
         <v>33125</v>
@@ -1159,16 +1159,16 @@
     </row>
     <row r="21" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B21" s="15" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D21" s="17" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E21" s="16" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="F21" s="18">
         <v>33125</v>
@@ -1182,16 +1182,16 @@
     </row>
     <row r="22" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B22" s="15" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D22" s="17" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="F22" s="18">
         <v>33125</v>
@@ -1205,16 +1205,16 @@
     </row>
     <row r="23" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B23" s="15" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D23" s="17" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E23" s="16" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="F23" s="18">
         <v>33125</v>
@@ -1228,16 +1228,16 @@
     </row>
     <row r="24" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B24" s="15" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D24" s="17" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="F24" s="18">
         <v>33125</v>
@@ -1251,22 +1251,22 @@
     </row>
     <row r="25" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B25" s="15" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="D25" s="17" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="E25" s="16" t="s">
         <v>23</v>
       </c>
       <c r="F25" s="18">
-        <v>29509</v>
+        <v>33125</v>
       </c>
       <c r="G25" s="18">
-        <v>737717</v>
+        <v>828116</v>
       </c>
       <c r="H25" s="19"/>
       <c r="I25" s="19"/>
@@ -1274,22 +1274,22 @@
     </row>
     <row r="26" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B26" s="15" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="D26" s="17" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="E26" s="16" t="s">
         <v>24</v>
       </c>
       <c r="F26" s="18">
-        <v>29509</v>
+        <v>33125</v>
       </c>
       <c r="G26" s="18">
-        <v>737717</v>
+        <v>828116</v>
       </c>
       <c r="H26" s="19"/>
       <c r="I26" s="19"/>
@@ -1297,22 +1297,22 @@
     </row>
     <row r="27" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B27" s="21" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="C27" s="22" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="D27" s="23" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="E27" s="22" t="s">
         <v>25</v>
       </c>
       <c r="F27" s="24">
-        <v>10820</v>
+        <v>25396</v>
       </c>
       <c r="G27" s="24">
-        <v>737717</v>
+        <v>828116</v>
       </c>
       <c r="H27" s="25"/>
       <c r="I27" s="25"/>
